--- a/PlayerInfo.xlsx
+++ b/PlayerInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\현상\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\현상\Desktop\Programming_27\3D-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,6 +71,26 @@
   </si>
   <si>
     <t>SP_Shild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Foot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_staff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,9 +483,14 @@
     <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +527,23 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
